--- a/Docs.xlsx
+++ b/Docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilo.sanchez\Documents\UiPath\Savia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9899D8-25F6-458C-AECA-EDC34D6A9978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57E19D5-1F36-45A0-B46B-3EDE9E05CBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34980" yWindow="2055" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,6 +412,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>1013456539</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
